--- a/templates/2V28_EXP.xlsx
+++ b/templates/2V28_EXP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agustin.lago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CB3508-A871-42E0-8D68-2E37B052F995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F59695-595E-4825-8BBE-4BAE17AE1A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="825" windowWidth="27000" windowHeight="17790" tabRatio="856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6615" yWindow="2070" windowWidth="29835" windowHeight="19785" tabRatio="856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2v28 EXTERIOR" sheetId="30" r:id="rId1"/>
@@ -23,15 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -42,9 +33,6 @@
     <t>CHECK LIST - HINCADO</t>
   </si>
   <si>
-    <t xml:space="preserve">Nº DE MESA: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ubicación: NAVARRA - TUDELA </t>
   </si>
   <si>
@@ -180,15 +168,6 @@
     <t>REV.00</t>
   </si>
   <si>
-    <t>EMPRESA DE MONTAJE:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA DE MONTAJE O REPARACION: </t>
-  </si>
-  <si>
-    <t>REVIISÓN DE DOCUEMNTO POR REPARACIÓN: R00</t>
-  </si>
-  <si>
     <t>Distancia E - O de hincas TRASERAS</t>
   </si>
   <si>
@@ -841,6 +820,18 @@
   </si>
   <si>
     <t>{{"id_componente_plantilla": 64, "id_tipo_ensayo": 17}}</t>
+  </si>
+  <si>
+    <t>Nº DE MESA: @id_mesa_ct</t>
+  </si>
+  <si>
+    <t>EMPRESA DE MONTAJE: @empresa_montaje</t>
+  </si>
+  <si>
+    <t>REVIISÓN DE DOCUEMNTO POR REPARACIÓN: @inspeccion</t>
+  </si>
+  <si>
+    <t>FECHA DE MONTAJE O REPARACION: @fechainspeccion</t>
   </si>
 </sst>
 </file>
@@ -1286,6 +1277,24 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1387,24 +1396,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1915,7 +1906,7 @@
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,226 +1920,226 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="38" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55"/>
     </row>
     <row r="4" spans="2:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="2:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
     </row>
     <row r="6" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="B6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="2:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
+      <c r="B7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="2:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
+      <c r="B8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
     </row>
     <row r="9" spans="2:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
+      <c r="B9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2156,43 +2147,43 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="K14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="L14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="M14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="N14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="O14" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="L14" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2200,43 +2191,43 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="K15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="L15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="M15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="N15" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="O15" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="O15" s="51" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2244,43 +2235,43 @@
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="K16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="L16" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="M16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="52" t="s">
+      <c r="N16" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="52" t="s">
+      <c r="O16" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="L16" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="O16" s="52" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2288,43 +2279,43 @@
         <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="K17" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="L17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="M17" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="N17" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="O17" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="L17" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="N17" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="50" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2332,43 +2323,43 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="K18" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="L18" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="M18" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="N18" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="51" t="s">
+      <c r="O18" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="L18" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="N18" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="O18" s="51" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,43 +2367,43 @@
         <v>6</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
         <v>-80</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="K19" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="L19" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="M19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="J19" s="52" t="s">
+      <c r="N19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="52" t="s">
+      <c r="O19" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="L19" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="M19" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="N19" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="O19" s="52" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2420,43 +2411,43 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="K20" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="51" t="s">
+      <c r="L20" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="M20" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="51" t="s">
+      <c r="N20" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="51" t="s">
+      <c r="O20" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="L20" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="M20" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="N20" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="O20" s="51" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,43 +2455,43 @@
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="K21" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="L21" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="M21" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="N21" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="O21" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="L21" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="M21" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="N21" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="O21" s="52" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2508,43 +2499,43 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="K22" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="L22" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="M22" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="N22" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="O22" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="L22" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="M22" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="N22" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="O22" s="50" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2552,43 +2543,43 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="K23" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="L23" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="M23" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="N23" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="O23" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="L23" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="M23" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="N23" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="O23" s="50" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2596,43 +2587,43 @@
         <v>11</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="K24" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="L24" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="51" t="s">
+      <c r="M24" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="51" t="s">
+      <c r="N24" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="O24" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="L24" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="M24" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="N24" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="O24" s="51" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2641,40 +2632,40 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="K25" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="L25" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="M25" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="52" t="s">
+      <c r="N25" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="52" t="s">
+      <c r="O25" s="18" t="s">
         <v>173</v>
-      </c>
-      <c r="L25" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="M25" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="N25" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="O25" s="52" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2683,40 +2674,40 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="K26" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="L26" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="M26" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J26" s="51" t="s">
+      <c r="N26" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="51" t="s">
+      <c r="O26" s="17" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="N26" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="O26" s="51" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2728,37 +2719,37 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="K27" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="L27" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="M27" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="J27" s="52" t="s">
+      <c r="N27" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="52" t="s">
+      <c r="O27" s="18" t="s">
         <v>193</v>
-      </c>
-      <c r="L27" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="M27" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="N27" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="O27" s="52" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2770,37 +2761,37 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="K28" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="L28" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="M28" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="N28" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="K28" s="50" t="s">
+      <c r="O28" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="L28" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="M28" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="N28" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="O28" s="50" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2812,37 +2803,37 @@
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="K29" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="L29" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="M29" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="N29" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="O29" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="L29" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="M29" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="N29" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="O29" s="50" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2854,37 +2845,37 @@
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="K30" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H30" s="51" t="s">
+      <c r="L30" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="I30" s="51" t="s">
+      <c r="M30" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="J30" s="51" t="s">
+      <c r="N30" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="K30" s="51" t="s">
+      <c r="O30" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="L30" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="M30" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="N30" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="O30" s="51" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="31" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2896,37 +2887,37 @@
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="K31" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="L31" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="I31" s="52" t="s">
+      <c r="M31" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="J31" s="52" t="s">
+      <c r="N31" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="K31" s="52" t="s">
+      <c r="O31" s="18" t="s">
         <v>233</v>
-      </c>
-      <c r="L31" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="M31" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="N31" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="O31" s="52" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2938,37 +2929,37 @@
         <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="J32" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="K32" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="L32" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="I32" s="51" t="s">
+      <c r="M32" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="J32" s="51" t="s">
+      <c r="N32" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="K32" s="51" t="s">
+      <c r="O32" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="L32" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="M32" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="N32" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="O32" s="51" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2980,37 +2971,37 @@
         <v>4</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="K33" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="H33" s="55" t="s">
+      <c r="L33" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="I33" s="55" t="s">
+      <c r="M33" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="J33" s="55" t="s">
+      <c r="N33" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="K33" s="55" t="s">
+      <c r="O33" s="21" t="s">
         <v>253</v>
-      </c>
-      <c r="L33" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="M33" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="N33" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="O33" s="55" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="34" spans="2:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3022,60 +3013,60 @@
         <v>4</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="K34" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="H34" s="51" t="s">
+      <c r="L34" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="I34" s="51" t="s">
+      <c r="M34" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="J34" s="51" t="s">
+      <c r="N34" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="K34" s="51" t="s">
+      <c r="O34" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="L34" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="M34" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="N34" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="O34" s="51" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
+      <c r="B35" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3103,6 +3094,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BBC919A656D17446863542304808FF2A" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f1ae5b5a139191a31981aadb818856e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="be3fa50b-91e6-44c0-94df-aaffbaf9a89d" xmlns:ns3="8edcbcae-d133-4246-9583-fcb4e225d367" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98afc00a3a59e4c7d5626a1990ed285f" ns2:_="" ns3:_="">
     <xsd:import namespace="be3fa50b-91e6-44c0-94df-aaffbaf9a89d"/>
@@ -3359,15 +3359,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3405,6 +3396,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51615B8-3B66-49DD-A38F-613EBF9C6608}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F087D0A-6737-43E3-8D47-F4956A788E79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3423,14 +3422,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51615B8-3B66-49DD-A38F-613EBF9C6608}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3BA9F32-C31D-4AA6-BF31-050E50750754}">
   <ds:schemaRefs>
